--- a/efficiency.xlsx
+++ b/efficiency.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Jacob Alonzo, Samuel Araya, Manan Patel</t>
   </si>
@@ -37,77 +37,329 @@
     <t>difference</t>
   </si>
   <si>
+    <t>Worst Case Time Complexity</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>O(n^3)</t>
+  </si>
+  <si>
     <t>Best Case Time Complexity</t>
   </si>
   <si>
-    <t>O(1)</t>
-  </si>
-  <si>
-    <t>Worst Case Time Complexity</t>
-  </si>
-  <si>
-    <t>O(n)</t>
-  </si>
-  <si>
     <t>O(n^2)</t>
   </si>
   <si>
-    <t>resizableArrayBag union Best Case: O(1)</t>
-  </si>
-  <si>
-    <t>If both of the bags are empty, Big O notation would be O(1) since an empty result bag could be returned</t>
-  </si>
-  <si>
-    <t>resizableArrayBag union Worst Case: (O(n)</t>
-  </si>
-  <si>
-    <t>If any of the two bags have elements in them, we would need to iterate through each bag once to add them to result</t>
-  </si>
-  <si>
-    <t>resizableArrayBag intersection Best Case: O(1)</t>
-  </si>
-  <si>
-    <t>If one of the bags are empty, Big O notation would be O(1) since an empty result bag could be returned</t>
-  </si>
-  <si>
-    <t>resizableArrayBag intersection Worst Case: O(n^2)</t>
-  </si>
-  <si>
-    <t>If any of the two bags have elements in them, we would need to go through every element in bag 1, and while at each element, check if that</t>
-  </si>
-  <si>
-    <t>element is present anywhere else in bag 2</t>
-  </si>
-  <si>
-    <t>resizableArrayBag difference Best Case: O(1)</t>
-  </si>
-  <si>
-    <t>resizableArrayBag difference Worst Case: O(n^2)</t>
-  </si>
-  <si>
-    <t>LinkedBag union Best Case: O(1)</t>
-  </si>
-  <si>
-    <t>LinkedBag union Worst Case: (O(n)</t>
-  </si>
-  <si>
-    <t>LinkedBag intersection Best Case: O(1)</t>
-  </si>
-  <si>
-    <t>LinkedBag intersection Worst Case: O(n^2)</t>
-  </si>
-  <si>
-    <t>LinkedBag difference Best Case: O(1)</t>
-  </si>
-  <si>
-    <t>LinkedBag difference Worst Case: O(n^2)</t>
+    <t>bag 1 refers to the original bag, bag 2 refers to the parameterBag</t>
+  </si>
+  <si>
+    <t>Union Worst Case: O(n)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Every element in bag1 and bag2 is added into the result bag in separate </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>for loops</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>, so Big O Notation is O(n)</t>
+    </r>
+  </si>
+  <si>
+    <t>Union Best Case: O(n)</t>
+  </si>
+  <si>
+    <t>The Big O Notation for best case and worse case for union do not change since all elements need to be added. (assuming no empty bags)</t>
+  </si>
+  <si>
+    <t>intersection Worst Case: O(n^3)</t>
+  </si>
+  <si>
+    <t>We go through every element in bag2, see if the element in bag2 exists in bag1, and if it does, add it to result and delete that element from bag1.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">To do this we use a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>for loop</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> that uses an if statement with </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>.contains</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> that when true, runs </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>.remove</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>, so Big O Notation is O(n^3)</t>
+    </r>
+  </si>
+  <si>
+    <t>intersection Best Case: O(2)</t>
+  </si>
+  <si>
+    <t>If we go through every element in bag2, and when we check if the element in bag2 exists in bag1 we learn it never does, we never will call .remove so</t>
+  </si>
+  <si>
+    <t>the Big O Notation is O(n^2). This would happen if the two bags were completely different.</t>
+  </si>
+  <si>
+    <t>Difference Worst Case: O(n^3)</t>
+  </si>
+  <si>
+    <t>We go through every element in bag2, see if the element in bag2 exists in bag1, and if it does, delete that element from bag1. bag1 will be the final result.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">To do this we use a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>for loop</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> that uses an if statement with </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>.contains</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> that when true, runs </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>.remove</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>, so Big O Notation is O(n^3)</t>
+    </r>
+  </si>
+  <si>
+    <t>Difference Best Case: O(n^2)</t>
+  </si>
+  <si>
+    <t>LinkedBag</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Every element in bag1 and bag2 is added into the result bag in separate </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>for and while loops</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>, so Big O Notation is O(n)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">To do this we use a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>for loop</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> that uses an if statement with </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>.contains</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> that when true, runs </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>.remove</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>, so Big O Notation is O(n^3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">To do this we use a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>for loop</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> that uses an if statement with </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>.contains</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> that when true, runs </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>.remove</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>, so Big O Notation is O(n^3)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -122,110 +374,200 @@
       <color rgb="FF0000FF"/>
     </font>
     <font/>
+    <font>
+      <sz val="15.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border/>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
     </border>
     <border>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <top style="thin">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thick">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
-      <right style="thin">
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <bottom style="thin">
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -233,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -264,45 +606,56 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="16" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="16" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="17" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="18" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="18" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -532,7 +885,6 @@
         <v>1</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -602,28 +954,28 @@
         <v>9</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>9</v>
+      <c r="H7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>12</v>
@@ -631,127 +983,228 @@
       <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="14" t="s">
+      <c r="G8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="21"/>
-      <c r="I12" s="20"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15">
-      <c r="B15" s="21"/>
-      <c r="I15" s="20"/>
+      <c r="B15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16">
-      <c r="B16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="I16" s="20"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18">
-      <c r="B18" s="21"/>
-      <c r="I18" s="20"/>
+      <c r="B18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19">
-      <c r="B19" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="20"/>
+      <c r="B19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20">
-      <c r="B20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="20"/>
+      <c r="B20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21">
-      <c r="B21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="20"/>
+      <c r="B21" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22">
-      <c r="B22" s="21"/>
-      <c r="I22" s="20"/>
+      <c r="B22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="28" t="s">
         <v>22</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="21"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="25" t="s">
-        <v>21</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -759,119 +1212,218 @@
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="J36" s="31"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="23"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="27"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="27"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="J43" s="31"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="20"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="21"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="22" t="s">
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="23"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="21"/>
-      <c r="I34" s="20"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="20"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="21"/>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="22" t="s">
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="23"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="23"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="25" t="s">
         <v>27</v>
-      </c>
-      <c r="I38" s="20"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="20"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="20"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="21"/>
-      <c r="I41" s="20"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="I42" s="20"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="20"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="21"/>
-      <c r="I44" s="20"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" s="20"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="20"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="30" t="s">
-        <v>21</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -879,21 +1431,49 @@
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
-      <c r="I47" s="27"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="27"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="27"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B26:D26"/>
+  <mergeCells count="12">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B44:D44"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B45:D45"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A3"/>

--- a/efficiency.xlsx
+++ b/efficiency.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Jacob Alonzo, Samuel Araya, Manan Patel</t>
   </si>
@@ -85,166 +85,175 @@
     <t>Union Best Case: O(n)</t>
   </si>
   <si>
+    <t xml:space="preserve">The Big O Notation for best case and worse case for union do not change since all elements need to be added. </t>
+  </si>
+  <si>
+    <t>(this is the best case assuming no empty bags, if we had empty bags the Big O Notation would be O(1) depending on which bags are empty)</t>
+  </si>
+  <si>
+    <t>intersection Worst Case: O(n^3)</t>
+  </si>
+  <si>
+    <t>We go through every element in bag2, see if the element in bag2 exists in bag1, and if it does, add it to result and delete that element from bag1.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">To do this we use a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>for loop</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> that uses an if statement with </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>.contains</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> that when true, runs </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>.remove</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>, so Big O Notation is O(n^3)</t>
+    </r>
+  </si>
+  <si>
+    <t>intersection Best Case: O(2)</t>
+  </si>
+  <si>
+    <t>If we go through every element in bag2, and when we check if the element in bag2 exists in bag1 we learn it never does, we never will call .remove so</t>
+  </si>
+  <si>
+    <t>the Big O Notation is O(n^2). This would happen if the two bags were completely different.</t>
+  </si>
+  <si>
+    <t>(this is the best case assuming no empty bags, if we had empty bags the Big O Notation would be either O(1) or O(n) depending on which bags are empty)</t>
+  </si>
+  <si>
+    <t>Difference Worst Case: O(n^3)</t>
+  </si>
+  <si>
+    <t>We go through every element in bag2, see if the element in bag2 exists in bag1, and if it does, delete that element from bag1. bag1 will be the final result.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">To do this we use a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>for loop</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> that uses an if statement with </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>.contains</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> that when true, runs </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>.remove</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>, so Big O Notation is O(n^3)</t>
+    </r>
+  </si>
+  <si>
+    <t>Difference Best Case: O(n^2)</t>
+  </si>
+  <si>
+    <t>LinkedBag</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Every element in bag1 and bag2 is added into the result bag in separate </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>for and while loops</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>, so Big O Notation is O(n)</t>
+    </r>
+  </si>
+  <si>
     <t>The Big O Notation for best case and worse case for union do not change since all elements need to be added. (assuming no empty bags)</t>
-  </si>
-  <si>
-    <t>intersection Worst Case: O(n^3)</t>
-  </si>
-  <si>
-    <t>We go through every element in bag2, see if the element in bag2 exists in bag1, and if it does, add it to result and delete that element from bag1.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">To do this we use a </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>for loop</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> that uses an if statement with </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>.contains</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> that when true, runs </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>.remove</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>, so Big O Notation is O(n^3)</t>
-    </r>
-  </si>
-  <si>
-    <t>intersection Best Case: O(2)</t>
-  </si>
-  <si>
-    <t>If we go through every element in bag2, and when we check if the element in bag2 exists in bag1 we learn it never does, we never will call .remove so</t>
-  </si>
-  <si>
-    <t>the Big O Notation is O(n^2). This would happen if the two bags were completely different.</t>
-  </si>
-  <si>
-    <t>Difference Worst Case: O(n^3)</t>
-  </si>
-  <si>
-    <t>We go through every element in bag2, see if the element in bag2 exists in bag1, and if it does, delete that element from bag1. bag1 will be the final result.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">To do this we use a </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>for loop</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> that uses an if statement with </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>.contains</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> that when true, runs </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>.remove</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>, so Big O Notation is O(n^3)</t>
-    </r>
-  </si>
-  <si>
-    <t>Difference Best Case: O(n^2)</t>
-  </si>
-  <si>
-    <t>LinkedBag</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Every element in bag1 and bag2 is added into the result bag in separate </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>for and while loops</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>, so Big O Notation is O(n)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -575,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -619,14 +628,17 @@
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="12" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="16" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="15" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -635,21 +647,25 @@
     <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="17" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="18" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -1018,94 +1034,96 @@
       <c r="B12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="27"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16">
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="J16" s="31"/>
+      <c r="B16" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17">
-      <c r="B17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="J17" s="35"/>
     </row>
     <row r="18">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20">
       <c r="B20" s="25" t="s">
@@ -1124,70 +1142,70 @@
       <c r="B21" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="27"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="27"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23">
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="B23" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24">
-      <c r="B24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
+      <c r="B24" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="30"/>
     </row>
     <row r="25">
-      <c r="B25" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="J25" s="35"/>
     </row>
     <row r="26">
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27">
       <c r="B27" s="25" t="s">
@@ -1203,8 +1221,8 @@
       <c r="J27" s="27"/>
     </row>
     <row r="28">
-      <c r="B28" s="28" t="s">
-        <v>22</v>
+      <c r="B28" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -1216,148 +1234,150 @@
       <c r="J28" s="27"/>
     </row>
     <row r="29">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="30"/>
     </row>
     <row r="31">
-      <c r="B31" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="B31" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="30"/>
     </row>
     <row r="32">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="23"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="25" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="27"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="21" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="30"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="30"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="24" t="s">
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="30"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="38"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="23"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="27"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
@@ -1366,11 +1386,11 @@
       <c r="J41" s="27"/>
     </row>
     <row r="42">
-      <c r="B42" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
+      <c r="B42" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -1379,94 +1399,172 @@
       <c r="J42" s="27"/>
     </row>
     <row r="43">
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="J43" s="31"/>
+      <c r="B43" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="27"/>
     </row>
     <row r="44">
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="30"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="30"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="23"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="24" t="s">
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="30"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="23"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="23"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="25" t="s">
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="30"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="38"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="J48" s="35"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="27"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="27"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="27"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="34" t="s">
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="27"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="30"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="37"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="30"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="30"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>

--- a/efficiency.xlsx
+++ b/efficiency.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">The Big O Notation for best case and worse case for union do not change since all elements need to be added. </t>
   </si>
   <si>
-    <t>(this is the best case assuming no empty bags, if we had empty bags the Big O Notation would be O(1) depending on which bags are empty)</t>
+    <t>(this is the best case assuming no empty bags, if we had empty bags the Big O Notation could be O(1) depending on which bags are empty)</t>
   </si>
   <si>
     <t>intersection Worst Case: O(n^3)</t>

--- a/efficiency.xlsx
+++ b/efficiency.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alonz\eclipse-workspace\CS 2400 - Project 1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B0DC76-CEAF-49E8-934A-EC7C52FC7A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -60,23 +69,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Every element in bag1 and bag2 is added into the result bag in separate </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>for loops</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>, so Big O Notation is O(n)</t>
     </r>
@@ -99,53 +111,60 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">To do this we use a </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>for loop</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> that uses an if statement with </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>.contains</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> that when true, runs </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>.remove</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>, so Big O Notation is O(n^3)</t>
     </r>
@@ -171,53 +190,60 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">To do this we use a </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>for loop</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> that uses an if statement with </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>.contains</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> that when true, runs </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>.remove</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>, so Big O Notation is O(n^3)</t>
     </r>
@@ -231,80 +257,87 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Every element in bag1 and bag2 is added into the result bag in separate </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>for and while loops</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>, so Big O Notation is O(n)</t>
     </r>
   </si>
   <si>
-    <t>The Big O Notation for best case and worse case for union do not change since all elements need to be added. (assuming no empty bags)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">To do this we use a </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>for loop</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> that uses an if statement with </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>.contains</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> that when true, runs </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>.remove</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>, so Big O Notation is O(n^3)</t>
     </r>
@@ -312,84 +345,107 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">To do this we use a </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>for loop</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> that uses an if statement with </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>.contains</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> that when true, runs </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>.remove</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>, so Big O Notation is O(n^3)</t>
     </r>
+  </si>
+  <si>
+    <t>The Big O Notation for best case and worse case for union do not change since all elements need to be added.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="15.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -399,7 +455,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -421,43 +477,61 @@
     </fill>
   </fills>
   <borders count="20">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -467,22 +541,29 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -497,27 +578,34 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -527,165 +615,184 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="44">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="16" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="16" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="17" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -875,28 +982,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="14.71"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -906,7 +1018,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -917,7 +1029,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -925,657 +1037,665 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="17" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="21" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="25" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="28" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="31" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="31" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="36" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="25" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="27"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="25" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="27"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="28" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="31" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="37" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="31" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="38"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="J25" s="35"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="36" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="24"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="25" t="s">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="27"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="25" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="28" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="31" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="30"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="37" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B31" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="30"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="39" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B32" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="17" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="21" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B35" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="24"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="25" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="27"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="28" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="30"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="31" t="s">
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B38" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B39" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B40" s="24"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="J40" s="22"/>
+    </row>
+    <row r="41" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B41" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="30"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="30"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="38"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="J40" s="35"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="27"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="27"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="25" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B46" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B48" s="24"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="J48" s="22"/>
+    </row>
+    <row r="49" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B49" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B50" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B51" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="27"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="30"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="31" t="s">
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="30"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="37" t="s">
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="17"/>
+    </row>
+    <row r="54" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B54" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="30"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="31" t="s">
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B55" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="30"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="38"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="J48" s="35"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="27"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="27"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="27"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="30"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="30"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="30"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="42"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>